--- a/util/Test.xlsx
+++ b/util/Test.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/puskaruprety/eclipse-workspace/SeleniumTest/src/com/syntax/util/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CDC573-8252-E84F-81C7-CCF5F9C957BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1049DB-49C9-1345-A4DB-E88713A0641C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{6BB5A7B2-8CD6-2F47-8562-FE96C9736A4F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="14000" windowHeight="16940" activeTab="1" xr2:uid="{6BB5A7B2-8CD6-2F47-8562-FE96C9736A4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="SecondPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>First Name</t>
   </si>
@@ -84,13 +85,15 @@
   </si>
   <si>
     <t>boxing</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -120,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,70 +444,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CFB33D-CB0B-754E-BBCD-20D86A8BCAD1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33203125"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="b" s="0">
+      <c r="D1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D55BF04-9215-4142-B2D0-42A2686AAB82}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
